--- a/biology/Histoire de la zoologie et de la botanique/Émile_Maupas/Émile_Maupas.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Émile_Maupas/Émile_Maupas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89mile_Maupas</t>
+          <t>Émile_Maupas</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Émile François Maupas est un biologiste français, né le 2 juillet 1842 à Vaudry et mort le 18 octobre 1916 à Alger.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89mile_Maupas</t>
+          <t>Émile_Maupas</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études à l'École impériale des chartes, où il soutient en 1867 une thèse intitulée Essai sur la législation des guerres féodales d'après les textes coutumiers et les actes du XIIIe et du XIVe siècle, Émile Maupas devient conservateur de la Bibliothèque nationale d'Alger. Il devient associé à l’Académie des sciences, section d'anatomie et de zoologie en 1901. Il étudie les cycles reproducteurs des oxyures et des infusoires ciliés, C. Jordan dans sa nécrologie :
 « M. Maupas a montré que chaque espèce d’Infusoires ne se reproduit par scissiparité qu’un nombre limité de fois. Lorsqu’on approche de ce nombre, on observe des signes évidents de dégénérescence, et dès qu’il est atteint la colonie meurt. Mais si, avant la dégénérescence, on introduit dans la culture des individus d’une autre origine, de nombreuses conjugaisons se produisent bientôt, alors qu’on n’en observait aucune entre les individus issus d’une même souche [...]. »
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89mile_Maupas</t>
+          <t>Émile_Maupas</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Maupas E., 1883. Contribution à l'étude morphologique et anatomique des infusoires ciliés. Arch. Zool. exp. gén.
 Maupas E., « Modes et formes de reproduction des nématodes », Archives de Zoologie Expérimentale et Générale, vol. 8,‎ 1900, p. 463-624</t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89mile_Maupas</t>
+          <t>Émile_Maupas</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>C. Jordan (1916) Comptes rendus hebdomadaires des séances de l'Académie des sciences, 163 : 405-406.</t>
         </is>
